--- a/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 5,47</t>
+          <t>-3,32; 5,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 12,17</t>
+          <t>0,13; 12,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,96</t>
+          <t>0,37; 2,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 138,73</t>
+          <t>-41,97; 161,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 123,17</t>
+          <t>0,45; 144,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,18</t>
+          <t>1,85; 9,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 7,94</t>
+          <t>0,54; 8,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,35</t>
+          <t>0,62; 6,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 5,95</t>
+          <t>-1,27; 5,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,83; 161,53</t>
+          <t>17,93; 161,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 146,99</t>
+          <t>6,0; 159,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 217,46</t>
+          <t>11,23; 249,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 139,78</t>
+          <t>-17,06; 148,29</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,66</t>
+          <t>-1,01; 2,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,75</t>
+          <t>1,25; 9,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 3,23</t>
+          <t>-3,31; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 8,48</t>
+          <t>1,22; 8,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,66; 242,61</t>
+          <t>10,97; 260,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,41; 104,6</t>
+          <t>-51,58; 104,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 153,52</t>
+          <t>12,03; 161,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,28</t>
+          <t>0,4; 5,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 17,31</t>
+          <t>8,52; 17,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 15,32</t>
+          <t>6,01; 15,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 10,37</t>
+          <t>2,05; 10,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 1221,34</t>
+          <t>-4,76; 1249,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,91; 201,62</t>
+          <t>70,88; 201,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,17; 291,91</t>
+          <t>62,64; 290,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,38; 286,07</t>
+          <t>19,75; 279,67</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 13,02</t>
+          <t>-0,58; 13,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 14,38</t>
+          <t>2,49; 14,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 16,21</t>
+          <t>2,02; 16,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 5,11</t>
+          <t>-5,96; 5,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 158,42</t>
+          <t>-5,51; 165,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,0; 590,96</t>
+          <t>23,4; 457,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,73; 145,51</t>
+          <t>9,42; 141,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 42,01</t>
+          <t>-31,45; 41,41</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,76</t>
+          <t>1,07; 5,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 7,42</t>
+          <t>-3,2; 6,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 12,55</t>
+          <t>1,89; 12,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,74</t>
+          <t>1,48; 9,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 132,87</t>
+          <t>-28,56; 111,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,08; 281,64</t>
+          <t>13,45; 258,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,72; 164,74</t>
+          <t>14,97; 161,96</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,17</t>
+          <t>-1,79; 2,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,42</t>
+          <t>-0,61; 5,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,42</t>
+          <t>-0,32; 6,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 4,62</t>
+          <t>-7,6; 4,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 100,76</t>
+          <t>-31,47; 90,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 121,79</t>
+          <t>-8,98; 120,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 99,38</t>
+          <t>-4,06; 103,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-37,33; 32,63</t>
+          <t>-39,8; 31,28</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,11</t>
+          <t>2,97; 9,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,16</t>
+          <t>-1,9; 5,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,35</t>
+          <t>-0,3; 5,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,19; 10,03</t>
+          <t>2,18; 10,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,78; 159,57</t>
+          <t>33,96; 151,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 58,26</t>
+          <t>-16,22; 56,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 90,51</t>
+          <t>-5,12; 92,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,38; 72,63</t>
+          <t>12,01; 76,26</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,74</t>
+          <t>2,14; 4,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,76</t>
+          <t>3,63; 6,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,85</t>
+          <t>2,77; 5,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,05</t>
+          <t>1,48; 5,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>41,28; 107,41</t>
+          <t>36,65; 104,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>42,26; 92,4</t>
+          <t>41,44; 89,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,84; 86,69</t>
+          <t>33,78; 84,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,38; 50,48</t>
+          <t>12,92; 50,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,48</t>
+          <t>-2,75; 5,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 12,78</t>
+          <t>0,56; 13,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 161,67</t>
+          <t>-36,08; 161,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 144,15</t>
+          <t>1,57; 135,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 9,81</t>
+          <t>1,77; 9,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 8,15</t>
+          <t>0,28; 7,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,68</t>
+          <t>0,58; 6,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,93; 161,15</t>
+          <t>14,87; 153,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,0; 159,35</t>
+          <t>1,22; 149,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 249,37</t>
+          <t>8,5; 242,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,67</t>
+          <t>-1,05; 2,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 9,9</t>
+          <t>1,42; 10,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,23</t>
+          <t>-3,65; 2,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,1; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,97; 260,58</t>
+          <t>15,54; 280,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,58; 104,09</t>
+          <t>-54,5; 87,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,05</t>
+          <t>0,59; 5,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 17,25</t>
+          <t>8,8; 16,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 15,23</t>
+          <t>5,65; 15,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 1249,67</t>
+          <t>-0,47; 985,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>70,88; 201,44</t>
+          <t>73,37; 195,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,64; 290,35</t>
+          <t>62,42; 304,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 13,4</t>
+          <t>-0,72; 13,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 14,25</t>
+          <t>3,09; 13,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 16,44</t>
+          <t>1,37; 16,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 165,93</t>
+          <t>-7,12; 162,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,4; 457,58</t>
+          <t>37,63; 483,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,42; 141,88</t>
+          <t>5,33; 144,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,67</t>
+          <t>1,04; 5,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 6,86</t>
+          <t>-2,19; 7,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 12,06</t>
+          <t>1,61; 12,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 111,85</t>
+          <t>-22,91; 123,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,45; 258,41</t>
+          <t>17,2; 276,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,96</t>
+          <t>-1,72; 3,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,15</t>
+          <t>-0,63; 5,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 6,26</t>
+          <t>-0,65; 6,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 90,72</t>
+          <t>-29,44; 100,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 120,16</t>
+          <t>-9,93; 114,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 103,89</t>
+          <t>-8,88; 98,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,97; 9,22</t>
+          <t>2,48; 8,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 5,1</t>
+          <t>-1,28; 5,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,4</t>
+          <t>-0,19; 5,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,96; 151,85</t>
+          <t>26,41; 138,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 56,3</t>
+          <t>-11,35; 59,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 92,56</t>
+          <t>-3,57; 96,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,79</t>
+          <t>2,22; 4,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,74</t>
+          <t>3,56; 6,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,69</t>
+          <t>2,76; 5,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>36,65; 104,1</t>
+          <t>38,26; 99,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>41,44; 89,45</t>
+          <t>40,04; 90,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,78; 84,18</t>
+          <t>34,09; 86,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,19</t>
+          <t>-2,74; 5,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 13,04</t>
+          <t>0,09; 12,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,07</t>
+          <t>0,41; 1,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 161,59</t>
+          <t>-37,76; 138,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 135,22</t>
+          <t>-3,0; 123,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,66</t>
+          <t>2,07; 10,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 7,98</t>
+          <t>0,25; 7,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,54</t>
+          <t>0,54; 6,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 5,71</t>
+          <t>-0,81; 5,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 153,55</t>
+          <t>19,83; 161,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 149,96</t>
+          <t>-1,47; 146,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,5; 242,15</t>
+          <t>7,44; 217,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 148,29</t>
+          <t>-11,92; 139,78</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,58</t>
+          <t>-0,98; 2,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 10,38</t>
+          <t>1,19; 9,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 2,92</t>
+          <t>-3,68; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 8,67</t>
+          <t>0,69; 8,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-99,1; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,54; 280,86</t>
+          <t>11,66; 242,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 87,5</t>
+          <t>-54,41; 104,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 161,17</t>
+          <t>5,7; 153,52</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,13</t>
+          <t>0,6; 5,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 16,92</t>
+          <t>8,83; 17,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 15,67</t>
+          <t>5,88; 15,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 10,36</t>
+          <t>2,29; 10,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 985,02</t>
+          <t>5,68; 1221,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,37; 195,53</t>
+          <t>68,91; 201,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,42; 304,05</t>
+          <t>61,17; 291,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 279,67</t>
+          <t>25,38; 286,07</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 13,4</t>
+          <t>-0,53; 13,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 13,98</t>
+          <t>3,04; 14,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 16,72</t>
+          <t>1,78; 16,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 5,2</t>
+          <t>-6,56; 5,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 162,16</t>
+          <t>-4,71; 158,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,63; 483,89</t>
+          <t>33,0; 590,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 144,27</t>
+          <t>7,73; 145,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 41,41</t>
+          <t>-33,49; 42,01</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,66</t>
+          <t>1,09; 5,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 7,57</t>
+          <t>-2,66; 7,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 12,61</t>
+          <t>1,8; 12,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,56</t>
+          <t>1,77; 9,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 123,82</t>
+          <t>-24,25; 132,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,2; 276,72</t>
+          <t>18,08; 281,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,97; 161,96</t>
+          <t>17,72; 164,74</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,33</t>
+          <t>-1,57; 3,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 5,22</t>
+          <t>-0,3; 5,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 6,38</t>
+          <t>-0,38; 6,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 4,49</t>
+          <t>-6,64; 4,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-29,44; 100,85</t>
+          <t>-28,83; 100,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 114,03</t>
+          <t>-6,65; 121,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 98,43</t>
+          <t>-5,98; 99,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 31,28</t>
+          <t>-37,33; 32,63</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,48; 8,58</t>
+          <t>2,9; 9,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 5,21</t>
+          <t>-1,36; 5,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,61</t>
+          <t>-0,3; 5,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 10,45</t>
+          <t>2,19; 10,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,41; 138,27</t>
+          <t>34,78; 159,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 59,53</t>
+          <t>-11,57; 58,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 96,84</t>
+          <t>-5,43; 90,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,01; 76,26</t>
+          <t>11,38; 72,63</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,6</t>
+          <t>2,29; 4,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,71</t>
+          <t>3,67; 6,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,78</t>
+          <t>2,86; 5,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,02</t>
+          <t>1,52; 5,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>38,26; 99,97</t>
+          <t>41,28; 107,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>40,04; 90,56</t>
+          <t>42,26; 92,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,09; 86,14</t>
+          <t>34,84; 86,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12,92; 50,52</t>
+          <t>13,38; 50,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,94; 21,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,96</t>
+          <t>0,41; 1,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,37; 254,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>47,92%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 5,95</t>
+          <t>-0,75; 5,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 139,78</t>
+          <t>-11,62; 139,57</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>68,87%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 8,48</t>
+          <t>0,69; 8,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 153,52</t>
+          <t>5,3; 154,46</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,06</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>125,7%</t>
+          <t>112,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>112,41%</t>
+          <t>77,41%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 17,31</t>
+          <t>6,04; 16,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 10,37</t>
+          <t>-0,73; 8,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,91; 201,62</t>
+          <t>45,49; 215,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,38; 286,07</t>
+          <t>-10,78; 234,03</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,81%</t>
+          <t>-3,87%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 5,11</t>
+          <t>-6,46; 5,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 42,01</t>
+          <t>-32,79; 42,59</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>76,25%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,74</t>
+          <t>1,96; 9,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,72; 164,74</t>
+          <t>20,03; 172,04</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,72%</t>
+          <t>-15,59%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 4,62</t>
+          <t>-10,85; 3,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-37,33; 32,63</t>
+          <t>-56,81; 26,39</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>74,5%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,19; 10,03</t>
+          <t>3,78; 17,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,38; 72,63</t>
+          <t>20,02; 270,2</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>33,13%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,05</t>
+          <t>0,62; 5,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,38; 50,48</t>
+          <t>8,04; 68,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 5,47</t>
+          <t>-2,84; 5,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,94; 21,57</t>
+          <t>8,92; 22,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 12,17</t>
+          <t>-0,3; 12,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,92</t>
+          <t>0,36; 1,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 138,73</t>
+          <t>-40,22; 155,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>62,37; 254,6</t>
+          <t>62,95; 262,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 123,17</t>
+          <t>-3,05; 135,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,18</t>
+          <t>1,72; 9,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 7,94</t>
+          <t>0,49; 8,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,35</t>
+          <t>0,54; 6,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,93</t>
+          <t>-0,72; 5,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,83; 161,53</t>
+          <t>16,58; 156,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 146,99</t>
+          <t>2,87; 154,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 217,46</t>
+          <t>6,98; 218,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 139,57</t>
+          <t>-12,19; 138,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,66</t>
+          <t>-1,05; 2,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,75</t>
+          <t>0,78; 10,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 3,23</t>
+          <t>-3,43; 3,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 8,4</t>
+          <t>1,1; 8,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-84,61; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,66; 242,61</t>
+          <t>7,62; 247,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,41; 104,6</t>
+          <t>-52,06; 95,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 154,46</t>
+          <t>11,14; 155,58</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,28</t>
+          <t>0,53; 5,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 16,81</t>
+          <t>5,64; 15,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 15,32</t>
+          <t>6,02; 15,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 8,79</t>
+          <t>-1,24; 8,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 1221,34</t>
+          <t>-3,01; 1144,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,49; 215,5</t>
+          <t>46,1; 204,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,17; 291,91</t>
+          <t>64,21; 304,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 234,03</t>
+          <t>-15,29; 226,57</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 13,02</t>
+          <t>-0,31; 12,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 14,38</t>
+          <t>3,46; 14,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 16,21</t>
+          <t>1,38; 16,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,05</t>
+          <t>-6,22; 4,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 158,42</t>
+          <t>-3,31; 146,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,0; 590,96</t>
+          <t>35,4; 508,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,73; 145,51</t>
+          <t>6,56; 146,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 42,59</t>
+          <t>-32,82; 39,15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,76</t>
+          <t>1,08; 5,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 7,42</t>
+          <t>-3,01; 7,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 12,55</t>
+          <t>1,49; 12,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 9,86</t>
+          <t>1,4; 9,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,24 +1193,24 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 132,87</t>
+          <t>-29,55; 121,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,08; 281,64</t>
+          <t>11,0; 277,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,03; 172,04</t>
+          <t>16,61; 174,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,17</t>
+          <t>-1,6; 3,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,42</t>
+          <t>-0,51; 5,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,42</t>
+          <t>-0,17; 6,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 3,84</t>
+          <t>-11,63; 3,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 100,76</t>
+          <t>-29,42; 108,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 121,79</t>
+          <t>-9,27; 125,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 99,38</t>
+          <t>-2,07; 102,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-56,81; 26,39</t>
+          <t>-58,6; 21,85</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,11</t>
+          <t>2,45; 8,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,16</t>
+          <t>-1,21; 5,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,35</t>
+          <t>-0,05; 5,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,78; 17,52</t>
+          <t>3,88; 18,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,78; 159,57</t>
+          <t>28,02; 149,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 58,26</t>
+          <t>-9,35; 60,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 90,51</t>
+          <t>-2,77; 101,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,02; 270,2</t>
+          <t>20,61; 315,88</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,74</t>
+          <t>2,15; 4,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,76</t>
+          <t>3,7; 6,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,85</t>
+          <t>2,98; 5,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,54</t>
+          <t>0,71; 5,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>41,28; 107,41</t>
+          <t>37,51; 103,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>42,26; 92,4</t>
+          <t>42,33; 88,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,84; 86,69</t>
+          <t>36,41; 85,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,04; 68,0</t>
+          <t>8,54; 69,49</t>
         </is>
       </c>
     </row>
